--- a/output/fit_clients/fit_round_306.xlsx
+++ b/output/fit_clients/fit_round_306.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2337959459.369063</v>
+        <v>1950284957.911139</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09182518092111203</v>
+        <v>0.1019523658904641</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02738159382871592</v>
+        <v>0.03421347792910573</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1168979770.771506</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2100764424.043084</v>
+        <v>2299175798.973233</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1408520154578649</v>
+        <v>0.1173957514216931</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04324740237979625</v>
+        <v>0.03722118053441023</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1050382267.685808</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4010653623.982766</v>
+        <v>4628457168.46643</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1506450217739752</v>
+        <v>0.1570924820736883</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02637185016912358</v>
+        <v>0.02814705130707409</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>110</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2005326826.924633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2879449240.37335</v>
+        <v>2890080215.560365</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07524644848507353</v>
+        <v>0.07209974061761847</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03707924077693112</v>
+        <v>0.04786602364661143</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>115</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1439724697.989114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1874437366.305799</v>
+        <v>2665688572.348046</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1471723287655465</v>
+        <v>0.1416277760287326</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0413630550215023</v>
+        <v>0.03638257065413955</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>58</v>
-      </c>
-      <c r="J6" t="n">
-        <v>937218726.3382593</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2349610387.855684</v>
+        <v>2173149082.544755</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06902531381644082</v>
+        <v>0.06326867307257551</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03692764777148645</v>
+        <v>0.03428348552326143</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>96</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1174805221.402879</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2760059329.242567</v>
+        <v>2448948331.941821</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1873984244749991</v>
+        <v>0.1580058459021894</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02932435464688297</v>
+        <v>0.02729312637858926</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>97</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1380029697.608825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1658748230.40433</v>
+        <v>2041780616.792156</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1889967518701519</v>
+        <v>0.1228396914790709</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02807869232805374</v>
+        <v>0.02652776758852031</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>829374189.1544701</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4253057111.763138</v>
+        <v>5382707623.603138</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2041349532844687</v>
+        <v>0.1372031241146155</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04705372008644983</v>
+        <v>0.04519329772851884</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>129</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2126528597.395032</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3656181368.372766</v>
+        <v>2766015862.400159</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1435035895397211</v>
+        <v>0.1699600403132852</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04181430844802674</v>
+        <v>0.04130051110543573</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>126</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1828090672.893444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2155040661.246533</v>
+        <v>3184400641.108789</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1221307354362617</v>
+        <v>0.152915156039892</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04160178977221327</v>
+        <v>0.04793955025510527</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>105</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1077520271.264116</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4053000488.453126</v>
+        <v>4443589905.03082</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09251697249817797</v>
+        <v>0.06803851438329103</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02886404182875152</v>
+        <v>0.02368803027220713</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>103</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2026500296.460056</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2482511205.851674</v>
+        <v>2910136504.418601</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1577942296545733</v>
+        <v>0.1510012371400787</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03457235791656418</v>
+        <v>0.03740216742185982</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>101</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1241255674.842732</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1142437491.279896</v>
+        <v>1368905972.747596</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07253339202607778</v>
+        <v>0.09788282964138344</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03882674831804141</v>
+        <v>0.03847105894649713</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>571218750.0817115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1966743647.008981</v>
+        <v>2852474787.41095</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08248563263053382</v>
+        <v>0.1035275146259231</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03245782250012251</v>
+        <v>0.04700555903648122</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>59</v>
-      </c>
-      <c r="J16" t="n">
-        <v>983371901.9577795</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3919849571.482155</v>
+        <v>5163081427.780248</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1694813417773295</v>
+        <v>0.1693282273651193</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03288520093140943</v>
+        <v>0.03323891267644118</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>89</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1959924824.314331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3079398026.351119</v>
+        <v>2833036549.193755</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1349064259494617</v>
+        <v>0.1480270367586163</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03411641826885931</v>
+        <v>0.02353495370759911</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>100</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1539699037.740765</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1253349974.282378</v>
+        <v>915481592.1066347</v>
       </c>
       <c r="F19" t="n">
-        <v>0.174931174899627</v>
+        <v>0.1619265943494699</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01859221692962757</v>
+        <v>0.02307984288710366</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>626675078.0373037</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2128677742.182664</v>
+        <v>2790572868.245456</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1338224021749721</v>
+        <v>0.1542827584107529</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02343969271528386</v>
+        <v>0.02068261452114581</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1064338883.739452</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2631930667.033705</v>
+        <v>2257816888.401273</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0822996737556134</v>
+        <v>0.08960994051309291</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02996497522858836</v>
+        <v>0.04620503124291672</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>25</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1315965308.999973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3772912373.581811</v>
+        <v>2743618906.352822</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1031845165337917</v>
+        <v>0.1378043217671993</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05245533428263562</v>
+        <v>0.04581431009105062</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>84</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1886456202.039862</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>989741311.7287395</v>
+        <v>1215386351.597368</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1549402993091309</v>
+        <v>0.1835368405510087</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04904339320119405</v>
+        <v>0.05340296689197736</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>494870727.7937768</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3675793766.730646</v>
+        <v>3106368089.49766</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1416990185857935</v>
+        <v>0.129102685439015</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0368896309933003</v>
+        <v>0.02563656288836309</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>89</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1837896873.169213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1103529132.528276</v>
+        <v>942722371.1058122</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09492122061888465</v>
+        <v>0.1097667835998627</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02159496741462384</v>
+        <v>0.01934034003699898</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>551764606.4237732</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1265036349.449366</v>
+        <v>1306448902.863999</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08770602314978354</v>
+        <v>0.0816580277316639</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0365593584939754</v>
+        <v>0.03478716945756467</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>632518211.7284904</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4455661850.098564</v>
+        <v>3821622203.242782</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1062437732953635</v>
+        <v>0.1247094484234812</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01699185197852792</v>
+        <v>0.02188718509867208</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>71</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2227830912.570268</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3362490080.211568</v>
+        <v>2426932213.665443</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1222000389100165</v>
+        <v>0.09356028552539754</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04128237477187816</v>
+        <v>0.04081614286982969</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>98</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1681245082.824347</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4956370522.975324</v>
+        <v>4466603663.314604</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1151845939036222</v>
+        <v>0.1435776777494041</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04241925924303885</v>
+        <v>0.04355778185472103</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>135</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2478185212.055412</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2252157269.157854</v>
+        <v>1767497100.125765</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1026717511083637</v>
+        <v>0.1058532070207292</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0321839544924999</v>
+        <v>0.03715883582821615</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1126078700.757951</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1017231051.343106</v>
+        <v>998064887.3713291</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06984240778277617</v>
+        <v>0.08686153164383735</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03894425184200596</v>
+        <v>0.04819394249844747</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>508615520.1619837</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1712438401.807328</v>
+        <v>1414246328.167843</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1074116465458124</v>
+        <v>0.07907947226261673</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03402768525674748</v>
+        <v>0.037506883819445</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>856219313.2526624</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2293875175.323135</v>
+        <v>2422101083.631884</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1467739825008545</v>
+        <v>0.159722447555346</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03945194901802779</v>
+        <v>0.05333598930560423</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>90</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1146937643.44934</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1393181831.437074</v>
+        <v>1307205545.469128</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09111574850519061</v>
+        <v>0.1102388038795395</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01921327707829351</v>
+        <v>0.01938119455704074</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>696590889.1410809</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1037325744.203888</v>
+        <v>950905022.0005932</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1042724570311054</v>
+        <v>0.1038363163110023</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03147345319226411</v>
+        <v>0.03705545085277395</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>518662882.4918537</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2408192242.328361</v>
+        <v>2994831461.088491</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1788372622380279</v>
+        <v>0.1785839360619519</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02526913539072928</v>
+        <v>0.02874483293594241</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>77</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1204096150.498072</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1952480094.683686</v>
+        <v>2598590299.25607</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07279953500618622</v>
+        <v>0.1049625945812747</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03905105390661093</v>
+        <v>0.03730133877267206</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>80</v>
-      </c>
-      <c r="J37" t="n">
-        <v>976240068.0736177</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1360132062.336615</v>
+        <v>2036952359.314363</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1108056602620976</v>
+        <v>0.09058418022331501</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03941543716955115</v>
+        <v>0.03503649626542976</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>680066100.1820743</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1818226514.505809</v>
+        <v>1885706033.518058</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1907618563918705</v>
+        <v>0.1515117669744297</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02395875156507373</v>
+        <v>0.02009561085511023</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>909113279.3725027</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1378792475.844029</v>
+        <v>1586959581.287019</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1581529197142108</v>
+        <v>0.1288257679449738</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04696194896367077</v>
+        <v>0.0456028795501664</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>689396234.4579488</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2472902274.619638</v>
+        <v>2639712386.711386</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1464599505130226</v>
+        <v>0.1432049548986462</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03199244796634629</v>
+        <v>0.03041395682587202</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>76</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1236451165.208491</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4332509076.831347</v>
+        <v>3335846652.043608</v>
       </c>
       <c r="F42" t="n">
-        <v>0.118882475100293</v>
+        <v>0.08161674701165818</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03713758082728315</v>
+        <v>0.04071229700948559</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2166254590.582764</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2262614671.61375</v>
+        <v>1934962002.285946</v>
       </c>
       <c r="F43" t="n">
-        <v>0.181719106023801</v>
+        <v>0.2034115710303353</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02336058040950475</v>
+        <v>0.02301318389597118</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>110</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1131307408.353058</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1531158229.123872</v>
+        <v>2316772039.636002</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06938383890786709</v>
+        <v>0.08963702433002715</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02244372251874462</v>
+        <v>0.03630991656591382</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>765579127.359838</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1561821406.354865</v>
+        <v>2383391466.516159</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1243516448551669</v>
+        <v>0.1935140027646041</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05386753626365204</v>
+        <v>0.04144086108149141</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>780910649.9176995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4092614418.303362</v>
+        <v>5078094890.645846</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1783797022822896</v>
+        <v>0.1687422830215269</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04659071424304844</v>
+        <v>0.05049456091997444</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>109</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2046307183.988826</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5154514737.813159</v>
+        <v>4977636102.725646</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1828689318619472</v>
+        <v>0.2030738771429752</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03970551230544014</v>
+        <v>0.05384171428776315</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>82</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2577257433.498339</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3123722211.719799</v>
+        <v>4478821453.812866</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08946938426910291</v>
+        <v>0.06697152511805524</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03295373391259268</v>
+        <v>0.02865356807301802</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>99</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1561861191.164593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1703314922.084275</v>
+        <v>1699103472.356376</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1679259436794633</v>
+        <v>0.1264585147613703</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03414250217324392</v>
+        <v>0.04106521944446454</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>851657461.452299</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3474695895.49197</v>
+        <v>4014164936.293572</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1179559054443279</v>
+        <v>0.117349744061423</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04617189695441581</v>
+        <v>0.04386879130756548</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>104</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1737347973.808939</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1089882324.06669</v>
+        <v>1540855449.852671</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1749198425038363</v>
+        <v>0.1494324746263011</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05317139113415226</v>
+        <v>0.05375125751181039</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>544941231.4238812</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4121496320.763539</v>
+        <v>4306613373.173673</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1036397503229708</v>
+        <v>0.08662638669242696</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06209644188974426</v>
+        <v>0.0388670550633899</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>126</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2060748209.7154</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3609297365.335039</v>
+        <v>3701992033.74779</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2001628774274415</v>
+        <v>0.1362669711587413</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03134519806128989</v>
+        <v>0.02493617750934179</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>88</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1804648673.036604</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3328493535.204433</v>
+        <v>4519421667.196297</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1130961851644232</v>
+        <v>0.1194019998958374</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05108033141718701</v>
+        <v>0.04183284171018734</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>101</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1664246778.944393</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3863689599.46387</v>
+        <v>3508045319.032874</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1897636577423446</v>
+        <v>0.1544327552792706</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02377118898691645</v>
+        <v>0.02205623143887528</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1931844768.652765</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1728454817.591329</v>
+        <v>1680517673.350735</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1490538769299229</v>
+        <v>0.1493938749480061</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04400551913020103</v>
+        <v>0.04881635443226116</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>864227417.1731148</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3612428054.240098</v>
+        <v>3547048018.857667</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1160291345510554</v>
+        <v>0.1202623327459733</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02335747286942012</v>
+        <v>0.01867398836821003</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>97</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1806214082.948953</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1218539518.85295</v>
+        <v>1703263926.723779</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1436231928914533</v>
+        <v>0.1247142008109372</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03519660747544998</v>
+        <v>0.03454042995397909</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>609269816.2604357</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3318226932.345806</v>
+        <v>4507922555.307751</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07884714424795582</v>
+        <v>0.1271083328373288</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03041471624809205</v>
+        <v>0.03560233619959315</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>85</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1659113475.008192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2424342686.16846</v>
+        <v>3533370137.441227</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1972596040154496</v>
+        <v>0.180969742198794</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02098953336101136</v>
+        <v>0.02556393253413757</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>95</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1212171353.053832</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2195620182.943237</v>
+        <v>2974627500.437591</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1305704136511059</v>
+        <v>0.108706444479198</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02508579317544497</v>
+        <v>0.02606341096200644</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>105</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1097810147.802758</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1584925618.835819</v>
+        <v>1638235071.883642</v>
       </c>
       <c r="F62" t="n">
-        <v>0.177564230498505</v>
+        <v>0.1816844406587813</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03333266023154595</v>
+        <v>0.04887251535855124</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>792462805.2306108</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5519122682.899551</v>
+        <v>4791640679.893627</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08505496764386655</v>
+        <v>0.09880773932751248</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03247676028106851</v>
+        <v>0.04563199989328958</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>87</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2759561336.07315</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4113992743.934004</v>
+        <v>3743183794.025255</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1661754822352395</v>
+        <v>0.1873583491538439</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02340460965520887</v>
+        <v>0.02941210737160622</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>95</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2056996415.846862</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4819816844.686169</v>
+        <v>4702756228.809133</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1181197719368045</v>
+        <v>0.1376655755235957</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02468790621837523</v>
+        <v>0.02065114684131992</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>110</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2409908391.993591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5485166767.675303</v>
+        <v>5405643413.29495</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1388574209721513</v>
+        <v>0.1090797897655664</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04808858447811237</v>
+        <v>0.04248695318794107</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>89</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2742583436.967459</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2307790466.008601</v>
+        <v>2768008124.043247</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1024897587723601</v>
+        <v>0.06249564038234334</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05000677655048637</v>
+        <v>0.03821627394856914</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>98</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1153895309.908481</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4233689022.044513</v>
+        <v>5345067381.81832</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1009362115168703</v>
+        <v>0.140597195087867</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04474492606743108</v>
+        <v>0.04605355792864811</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>97</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2116844520.971995</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2159830143.901173</v>
+        <v>1537976759.010381</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1657977675303793</v>
+        <v>0.1339269764196754</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04004060451273594</v>
+        <v>0.05134697718187413</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1079915097.598099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3348873575.570287</v>
+        <v>3696179049.288894</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09079447004765627</v>
+        <v>0.0874015241265714</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03295732356342222</v>
+        <v>0.04433126759723711</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>87</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1674436787.491644</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3627799754.119148</v>
+        <v>5429377967.828594</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1651935187456287</v>
+        <v>0.1640419124245995</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03235175207145451</v>
+        <v>0.02124197440279895</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>111</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1813899880.310584</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1885945820.69675</v>
+        <v>2098310003.58308</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09931242093027989</v>
+        <v>0.08654791778263697</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05091249979536221</v>
+        <v>0.04599046400087679</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>942972875.0618311</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2499700581.975056</v>
+        <v>3375304829.946605</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07733419543781014</v>
+        <v>0.08465948002390289</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05008854007563986</v>
+        <v>0.04123815985521186</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>116</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1249850332.796194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3289607233.492976</v>
+        <v>3895031370.793245</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1823777156332911</v>
+        <v>0.1274263986204277</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02223666279853406</v>
+        <v>0.02197089362708137</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>104</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1644803657.123203</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2266070499.732376</v>
+        <v>1627071975.259632</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1638413387625157</v>
+        <v>0.1471888796739876</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02771001374098931</v>
+        <v>0.02468514838369536</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1133035189.173383</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3456409471.631266</v>
+        <v>3502233177.593343</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07616114952154593</v>
+        <v>0.084280966277665</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02785334502470936</v>
+        <v>0.03097653262826789</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1728204697.714282</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2259579928.24447</v>
+        <v>2305613022.941792</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1390228690154942</v>
+        <v>0.1691424496400732</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02691131959733648</v>
+        <v>0.02795680704511489</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1129790063.978621</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4175580052.645418</v>
+        <v>3322382983.394581</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1288327384050634</v>
+        <v>0.09726814754863847</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05080880890942829</v>
+        <v>0.05213050370854115</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>106</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2087789979.48722</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1260098694.578388</v>
+        <v>1260320394.555394</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1089819651427238</v>
+        <v>0.1642765213388669</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02855600568852576</v>
+        <v>0.02569808723019647</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>630049339.5548061</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3750226974.013124</v>
+        <v>4924777580.485562</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07834737657597415</v>
+        <v>0.1043462959476487</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02482076822796986</v>
+        <v>0.03642310633622172</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>64</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1875113474.049359</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3422857668.625945</v>
+        <v>4002647694.779535</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0857678863249392</v>
+        <v>0.1267470818123954</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02836509886604389</v>
+        <v>0.02731866668973934</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>71</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1711428776.107986</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4812906309.854753</v>
+        <v>4936239746.662245</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1840794196384116</v>
+        <v>0.1867576246090086</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02344034317807479</v>
+        <v>0.02341575819713076</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>108</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2406453149.298174</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2393952798.966811</v>
+        <v>1824035093.621717</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1460145287741201</v>
+        <v>0.1568822234936879</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03799638939098052</v>
+        <v>0.03335070991196228</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1196976433.860981</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1941906120.180404</v>
+        <v>1762331113.300916</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1092545021120762</v>
+        <v>0.08900310908900499</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04761608173997153</v>
+        <v>0.03172284647949132</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>970953073.6129516</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3426956345.959919</v>
+        <v>2929248592.043747</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1489061820155154</v>
+        <v>0.1383072889584024</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03914809041946308</v>
+        <v>0.04253108077886825</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>115</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1713478280.253025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2349606128.921742</v>
+        <v>2636584863.358804</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1585916025497617</v>
+        <v>0.1541697879098211</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02641349222214867</v>
+        <v>0.01885373735553885</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>41</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1174803140.703096</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1217600335.478507</v>
+        <v>1175838942.426057</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1247012336702857</v>
+        <v>0.173568529230519</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02706212129717447</v>
+        <v>0.03210279788029034</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>608800227.8343109</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3187821542.344262</v>
+        <v>2654264444.621978</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1785496284631248</v>
+        <v>0.1539264950079473</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02815473094243872</v>
+        <v>0.03646819953601822</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>122</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1593910820.181086</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2486345067.251514</v>
+        <v>2481034001.897808</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1077310065882181</v>
+        <v>0.151563465398573</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02901269360361618</v>
+        <v>0.02872731872436407</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>103</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1243172609.38303</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2143377345.229485</v>
+        <v>1859798849.258534</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1014609466460707</v>
+        <v>0.1269362915693399</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04740197043335538</v>
+        <v>0.04507404266315411</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1071688769.138751</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1926646615.245753</v>
+        <v>2029746906.228166</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1383394629732212</v>
+        <v>0.1407551738180785</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04200118731176392</v>
+        <v>0.04546567644578536</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>963323289.6613802</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2526959284.412297</v>
+        <v>1978482127.689666</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1078339809818586</v>
+        <v>0.06788302152250453</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02870970636242679</v>
+        <v>0.03769568593314732</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>78</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1263479628.203901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4275626322.231569</v>
+        <v>4420163936.151961</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1222476438146671</v>
+        <v>0.1295528003839106</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03769602995743996</v>
+        <v>0.03903309430799774</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2137813143.929253</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2510688215.187715</v>
+        <v>1821271088.595581</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1360141007123347</v>
+        <v>0.1249254041629638</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02819331311209664</v>
+        <v>0.03451015623904891</v>
       </c>
       <c r="H94" t="b">
         <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1255344172.408141</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2578355959.219769</v>
+        <v>2392460716.194584</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08744276137688294</v>
+        <v>0.08391839427005947</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03380915082244412</v>
+        <v>0.05263367579222863</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>74</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1289178010.037632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1568547099.421088</v>
+        <v>1704311822.283555</v>
       </c>
       <c r="F96" t="n">
-        <v>0.101840333537702</v>
+        <v>0.1126425494654214</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03390456899628708</v>
+        <v>0.03084383521723409</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>784273582.7450575</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5111568145.830623</v>
+        <v>3449776053.19919</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1085316495722738</v>
+        <v>0.1224212349635988</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02841314501051361</v>
+        <v>0.02453161395943218</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>98</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2555784218.683072</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2966034288.062561</v>
+        <v>2476882207.366895</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1292122115523445</v>
+        <v>0.09182116361342227</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02187806632228041</v>
+        <v>0.02562282858519957</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>80</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1483017126.415421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2534263728.069514</v>
+        <v>3242526759.926398</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0984185663867122</v>
+        <v>0.1116009622941935</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02463419202700148</v>
+        <v>0.03061505816988003</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>99</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1267131816.218173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3933351018.754322</v>
+        <v>3669306926.472549</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1586825031389606</v>
+        <v>0.132664887221451</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02449220343893845</v>
+        <v>0.02818913016309329</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>94</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1966675574.743647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3176006261.091305</v>
+        <v>3352231968.285032</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2034793457226641</v>
+        <v>0.2053134586477934</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04093018179599228</v>
+        <v>0.05322001493098811</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>121</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1588003242.868427</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_306.xlsx
+++ b/output/fit_clients/fit_round_306.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1950284957.911139</v>
+        <v>1790842393.63855</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1019523658904641</v>
+        <v>0.08089235367743527</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03421347792910573</v>
+        <v>0.03796242738616575</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,16 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2299175798.973233</v>
+        <v>1652106616.201748</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1173957514216931</v>
+        <v>0.1478737200116185</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03722118053441023</v>
+        <v>0.0459326393060983</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4628457168.46643</v>
+        <v>3281334098.64543</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1570924820736883</v>
+        <v>0.1153096653123355</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02814705130707409</v>
+        <v>0.03684060794536548</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2890080215.560365</v>
+        <v>3489305640.529121</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07209974061761847</v>
+        <v>0.07600731683777397</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04786602364661143</v>
+        <v>0.05093617337034543</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2665688572.348046</v>
+        <v>1869128262.451169</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1416277760287326</v>
+        <v>0.09366597238202423</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03638257065413955</v>
+        <v>0.04859011994615129</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2173149082.544755</v>
+        <v>2284038727.4693</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06326867307257551</v>
+        <v>0.06683131551563412</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03428348552326143</v>
+        <v>0.04071539467165917</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2448948331.941821</v>
+        <v>3635269545.131115</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1580058459021894</v>
+        <v>0.17018373724549</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02729312637858926</v>
+        <v>0.02732143702952046</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2041780616.792156</v>
+        <v>1604284564.362405</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1228396914790709</v>
+        <v>0.1293522418865642</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02652776758852031</v>
+        <v>0.03625974440463084</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5382707623.603138</v>
+        <v>4826263158.932019</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1372031241146155</v>
+        <v>0.1722537943180016</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04519329772851884</v>
+        <v>0.03310549905117933</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2766015862.400159</v>
+        <v>2675610686.553195</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1699600403132852</v>
+        <v>0.1417848402399155</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04130051110543573</v>
+        <v>0.03369279944103529</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3184400641.108789</v>
+        <v>2379831222.811415</v>
       </c>
       <c r="F12" t="n">
-        <v>0.152915156039892</v>
+        <v>0.1748086669862917</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04793955025510527</v>
+        <v>0.03971932160307872</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4443589905.03082</v>
+        <v>4843396366.488737</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06803851438329103</v>
+        <v>0.0773169149825064</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02368803027220713</v>
+        <v>0.02428454284924219</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2910136504.418601</v>
+        <v>2491616661.84554</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1510012371400787</v>
+        <v>0.1243562689414421</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03740216742185982</v>
+        <v>0.03782761585773184</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1368905972.747596</v>
+        <v>1589859393.298936</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09788282964138344</v>
+        <v>0.09954275391960733</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03847105894649713</v>
+        <v>0.04756790668139793</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2852474787.41095</v>
+        <v>1950048257.837286</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1035275146259231</v>
+        <v>0.09178017773690401</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04700555903648122</v>
+        <v>0.04574892380897404</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5163081427.780248</v>
+        <v>4649897591.215044</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1693282273651193</v>
+        <v>0.1660974734415599</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03323891267644118</v>
+        <v>0.04697661571426742</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2833036549.193755</v>
+        <v>3161978546.72283</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1480270367586163</v>
+        <v>0.1115028311272266</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02353495370759911</v>
+        <v>0.02781384105020471</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>915481592.1066347</v>
+        <v>856781238.9214792</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1619265943494699</v>
+        <v>0.136370329166729</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02307984288710366</v>
+        <v>0.02484201480619192</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2790572868.245456</v>
+        <v>2461417727.960659</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1542827584107529</v>
+        <v>0.1075557225573555</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02068261452114581</v>
+        <v>0.02705993908390431</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2257816888.401273</v>
+        <v>2505876956.81582</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08960994051309291</v>
+        <v>0.0792133231094559</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04620503124291672</v>
+        <v>0.03139371818351171</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2743618906.352822</v>
+        <v>3571706993.493794</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1378043217671993</v>
+        <v>0.09104186440950936</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04581431009105062</v>
+        <v>0.03992949678114942</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1215386351.597368</v>
+        <v>1229693725.656108</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1835368405510087</v>
+        <v>0.1765692069823213</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05340296689197736</v>
+        <v>0.0501989692187287</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3106368089.49766</v>
+        <v>2967527676.62963</v>
       </c>
       <c r="F24" t="n">
-        <v>0.129102685439015</v>
+        <v>0.09246609618614191</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02563656288836309</v>
+        <v>0.03756876376853938</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>942722371.1058122</v>
+        <v>1251475514.443331</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1097667835998627</v>
+        <v>0.117747109925561</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01934034003699898</v>
+        <v>0.02833529817568745</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1306448902.863999</v>
+        <v>1143274844.544922</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0816580277316639</v>
+        <v>0.07639386789760359</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03478716945756467</v>
+        <v>0.03675126774715931</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3821622203.242782</v>
+        <v>3024090707.029965</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1247094484234812</v>
+        <v>0.09743030096901188</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02188718509867208</v>
+        <v>0.02638724953125738</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2426932213.665443</v>
+        <v>3326213169.44366</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09356028552539754</v>
+        <v>0.09887732450873422</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04081614286982969</v>
+        <v>0.04871741239928352</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4466603663.314604</v>
+        <v>4170561756.910896</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1435776777494041</v>
+        <v>0.1180443262413969</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04355778185472103</v>
+        <v>0.03336017938342292</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1767497100.125765</v>
+        <v>1522505960.955018</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1058532070207292</v>
+        <v>0.1151562620966937</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03715883582821615</v>
+        <v>0.02653981412478424</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>998064887.3713291</v>
+        <v>1046344717.688721</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08686153164383735</v>
+        <v>0.09027379367867215</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04819394249844747</v>
+        <v>0.04879283466382084</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1414246328.167843</v>
+        <v>1521342436.984962</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07907947226261673</v>
+        <v>0.09650879312128786</v>
       </c>
       <c r="G32" t="n">
-        <v>0.037506883819445</v>
+        <v>0.03116521953721654</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2422101083.631884</v>
+        <v>2535521113.713674</v>
       </c>
       <c r="F33" t="n">
-        <v>0.159722447555346</v>
+        <v>0.1630555045795456</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05333598930560423</v>
+        <v>0.0590221890502275</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1307205545.469128</v>
+        <v>1167397578.257281</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1102388038795395</v>
+        <v>0.1214261393640224</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01938119455704074</v>
+        <v>0.0240405598086175</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>950905022.0005932</v>
+        <v>1258455279.567893</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1038363163110023</v>
+        <v>0.1153882946992923</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03705545085277395</v>
+        <v>0.03420282234172042</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2994831461.088491</v>
+        <v>2711764278.443716</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1785839360619519</v>
+        <v>0.1438035221719167</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02874483293594241</v>
+        <v>0.02055343566630899</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2598590299.25607</v>
+        <v>2832039612.347953</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1049625945812747</v>
+        <v>0.1123538347302096</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03730133877267206</v>
+        <v>0.02787308612408479</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2036952359.314363</v>
+        <v>1461394075.189951</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09058418022331501</v>
+        <v>0.09134587905337591</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03503649626542976</v>
+        <v>0.02422682818573714</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1885706033.518058</v>
+        <v>1826117423.92165</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1515117669744297</v>
+        <v>0.1795467850987289</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02009561085511023</v>
+        <v>0.03134548074139833</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1586959581.287019</v>
+        <v>1505646253.596842</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1288257679449738</v>
+        <v>0.1102438014896463</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0456028795501664</v>
+        <v>0.04348720469470382</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,16 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2639712386.711386</v>
+        <v>2131006844.644737</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1432049548986462</v>
+        <v>0.1512323693777111</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03041395682587202</v>
+        <v>0.03700287478193545</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3335846652.043608</v>
+        <v>4107835730.239405</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08161674701165818</v>
+        <v>0.114814130364773</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04071229700948559</v>
+        <v>0.0310634260644764</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1934962002.285946</v>
+        <v>2494222488.419411</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2034115710303353</v>
+        <v>0.1717574795452578</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02301318389597118</v>
+        <v>0.01862733228767509</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,16 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2316772039.636002</v>
+        <v>2106681388.109525</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08963702433002715</v>
+        <v>0.07313584696519905</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03630991656591382</v>
+        <v>0.02424531431609383</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2383391466.516159</v>
+        <v>2330927788.731694</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1935140027646041</v>
+        <v>0.1575218437944933</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04144086108149141</v>
+        <v>0.05587823852098407</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5078094890.645846</v>
+        <v>3985674482.074244</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1687422830215269</v>
+        <v>0.1279575283633644</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05049456091997444</v>
+        <v>0.04664353733941951</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4977636102.725646</v>
+        <v>5140994478.286999</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2030738771429752</v>
+        <v>0.181874406578421</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05384171428776315</v>
+        <v>0.05666797397868611</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4478821453.812866</v>
+        <v>3242714180.476508</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06697152511805524</v>
+        <v>0.09027254700710853</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02865356807301802</v>
+        <v>0.03862530614105985</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1699103472.356376</v>
+        <v>1617388230.061552</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1264585147613703</v>
+        <v>0.1204362599317024</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04106521944446454</v>
+        <v>0.03226368321303111</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4014164936.293572</v>
+        <v>4068439073.931005</v>
       </c>
       <c r="F50" t="n">
-        <v>0.117349744061423</v>
+        <v>0.150538780100802</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04386879130756548</v>
+        <v>0.03328767013898916</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1540855449.852671</v>
+        <v>1137150903.611559</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1494324746263011</v>
+        <v>0.1325336778616543</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05375125751181039</v>
+        <v>0.04614013299048214</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4306613373.173673</v>
+        <v>3431140559.224932</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08662638669242696</v>
+        <v>0.09439186884724161</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0388670550633899</v>
+        <v>0.03732795264928372</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3701992033.74779</v>
+        <v>2862954827.891342</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1362669711587413</v>
+        <v>0.1256971571332817</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02493617750934179</v>
+        <v>0.02374649410139513</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4519421667.196297</v>
+        <v>4049840695.671527</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1194019998958374</v>
+        <v>0.142521770669366</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04183284171018734</v>
+        <v>0.05225254514727082</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3508045319.032874</v>
+        <v>3139588692.212646</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1544327552792706</v>
+        <v>0.1420010237115282</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02205623143887528</v>
+        <v>0.02239006063022938</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1680517673.350735</v>
+        <v>1734841791.633084</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1493938749480061</v>
+        <v>0.1018357677689039</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04881635443226116</v>
+        <v>0.04201559327081848</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3547048018.857667</v>
+        <v>3323869114.530117</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1202623327459733</v>
+        <v>0.154195040534625</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01867398836821003</v>
+        <v>0.02728517382266113</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1703263926.723779</v>
+        <v>1614543051.673531</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1247142008109372</v>
+        <v>0.1842707878680898</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03454042995397909</v>
+        <v>0.02446048790307641</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4507922555.307751</v>
+        <v>5263275576.277341</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1271083328373288</v>
+        <v>0.1209879066193135</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03560233619959315</v>
+        <v>0.0359922668614757</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3533370137.441227</v>
+        <v>3680646937.360011</v>
       </c>
       <c r="F60" t="n">
-        <v>0.180969742198794</v>
+        <v>0.2047850812322862</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02556393253413757</v>
+        <v>0.03087835206807687</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2974627500.437591</v>
+        <v>3279185512.532135</v>
       </c>
       <c r="F61" t="n">
-        <v>0.108706444479198</v>
+        <v>0.1483963063223141</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02606341096200644</v>
+        <v>0.03115692383322775</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1638235071.883642</v>
+        <v>1484478986.84318</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1816844406587813</v>
+        <v>0.189977944344579</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04887251535855124</v>
+        <v>0.0465374965274129</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4791640679.893627</v>
+        <v>4147928474.17768</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09880773932751248</v>
+        <v>0.08175616061312584</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04563199989328958</v>
+        <v>0.04382666169055854</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3743183794.025255</v>
+        <v>3525183230.583098</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1873583491538439</v>
+        <v>0.1720281849634406</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02941210737160622</v>
+        <v>0.02640371636908621</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4702756228.809133</v>
+        <v>4748022995.063548</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1376655755235957</v>
+        <v>0.1275466982676406</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02065114684131992</v>
+        <v>0.0302707641789505</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,13 +2278,13 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5405643413.29495</v>
+        <v>4235829416.378394</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1090797897655664</v>
+        <v>0.1557889966627786</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04248695318794107</v>
+        <v>0.03226149522171808</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2768008124.043247</v>
+        <v>2254021186.395545</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06249564038234334</v>
+        <v>0.08377393423415416</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03821627394856914</v>
+        <v>0.0460290614367848</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5345067381.81832</v>
+        <v>5405815135.28998</v>
       </c>
       <c r="F68" t="n">
-        <v>0.140597195087867</v>
+        <v>0.09927770311005268</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04605355792864811</v>
+        <v>0.03226393767039794</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1537976759.010381</v>
+        <v>2146906119.947572</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1339269764196754</v>
+        <v>0.1426623793031938</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05134697718187413</v>
+        <v>0.05543058102431998</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3696179049.288894</v>
+        <v>2466128983.552843</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0874015241265714</v>
+        <v>0.08303592606339891</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04433126759723711</v>
+        <v>0.04497968023926837</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5429377967.828594</v>
+        <v>5045507478.209062</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1640419124245995</v>
+        <v>0.1341277817563116</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02124197440279895</v>
+        <v>0.02215541811771981</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2098310003.58308</v>
+        <v>1678025715.089238</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08654791778263697</v>
+        <v>0.1021413985387148</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04599046400087679</v>
+        <v>0.04375807228323768</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3375304829.946605</v>
+        <v>2805843711.15627</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08465948002390289</v>
+        <v>0.107183593964224</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04123815985521186</v>
+        <v>0.043474987669318</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3895031370.793245</v>
+        <v>3371060731.725101</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1274263986204277</v>
+        <v>0.1622522957142542</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02197089362708137</v>
+        <v>0.02239440811510326</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1627071975.259632</v>
+        <v>1508009732.575679</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1471888796739876</v>
+        <v>0.1591150444383179</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02468514838369536</v>
+        <v>0.02668146464875295</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3502233177.593343</v>
+        <v>4277528920.644618</v>
       </c>
       <c r="F76" t="n">
-        <v>0.084280966277665</v>
+        <v>0.08561853585704642</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03097653262826789</v>
+        <v>0.02368762276822927</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2305613022.941792</v>
+        <v>2084667027.226319</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1691424496400732</v>
+        <v>0.1338409297025167</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02795680704511489</v>
+        <v>0.02665727177465853</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3322382983.394581</v>
+        <v>2926370087.911932</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09726814754863847</v>
+        <v>0.1205877298136133</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05213050370854115</v>
+        <v>0.03645995180319359</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1260320394.555394</v>
+        <v>1885586027.090004</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1642765213388669</v>
+        <v>0.1726683032119979</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02569808723019647</v>
+        <v>0.03938444255521315</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4924777580.485562</v>
+        <v>4273008093.073124</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1043462959476487</v>
+        <v>0.06800531926347286</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03642310633622172</v>
+        <v>0.03488278878799446</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4002647694.779535</v>
+        <v>5169758783.227069</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1267470818123954</v>
+        <v>0.08505244170619052</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02731866668973934</v>
+        <v>0.03202137814403065</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4936239746.662245</v>
+        <v>4497494382.267882</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1867576246090086</v>
+        <v>0.2023503603780879</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02341575819713076</v>
+        <v>0.0195713085842119</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1824035093.621717</v>
+        <v>1521439773.315804</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1568822234936879</v>
+        <v>0.117033131479625</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03335070991196228</v>
+        <v>0.04268708866492463</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1762331113.300916</v>
+        <v>2334522505.600936</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08900310908900499</v>
+        <v>0.1099905490688652</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03172284647949132</v>
+        <v>0.03488281798379349</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2929248592.043747</v>
+        <v>2778139575.394786</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1383072889584024</v>
+        <v>0.1412904676433875</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04253108077886825</v>
+        <v>0.04803074192698979</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2636584863.358804</v>
+        <v>1836056694.10252</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1541697879098211</v>
+        <v>0.172756514874585</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01885373735553885</v>
+        <v>0.02344416161997856</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1175838942.426057</v>
+        <v>931924774.5088819</v>
       </c>
       <c r="F87" t="n">
-        <v>0.173568529230519</v>
+        <v>0.1373880640657448</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03210279788029034</v>
+        <v>0.03611417191465666</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2654264444.621978</v>
+        <v>3060921129.933547</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1539264950079473</v>
+        <v>0.1454072343148035</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03646819953601822</v>
+        <v>0.02651866507483767</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2481034001.897808</v>
+        <v>3143765719.754232</v>
       </c>
       <c r="F89" t="n">
-        <v>0.151563465398573</v>
+        <v>0.1207764375615515</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02872731872436407</v>
+        <v>0.03950893013057139</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1859798849.258534</v>
+        <v>1719377226.870928</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1269362915693399</v>
+        <v>0.1380567055933438</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04507404266315411</v>
+        <v>0.05623309124036163</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2029746906.228166</v>
+        <v>1393836870.172358</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1407551738180785</v>
+        <v>0.14338305594331</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04546567644578536</v>
+        <v>0.05477174171498534</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1978482127.689666</v>
+        <v>2991755828.644517</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06788302152250453</v>
+        <v>0.07912962669250236</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03769568593314732</v>
+        <v>0.03425015202394254</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4420163936.151961</v>
+        <v>3134096374.017721</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1295528003839106</v>
+        <v>0.1019792384327232</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03903309430799774</v>
+        <v>0.05461243274630893</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,16 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1821271088.595581</v>
+        <v>2352565136.180135</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1249254041629638</v>
+        <v>0.1139293414190097</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03451015623904891</v>
+        <v>0.03005322210119157</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2392460716.194584</v>
+        <v>3093707194.009509</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08391839427005947</v>
+        <v>0.1223559452433036</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05263367579222863</v>
+        <v>0.05113634602590827</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1704311822.283555</v>
+        <v>2282326631.584423</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1126425494654214</v>
+        <v>0.1025719321033977</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03084383521723409</v>
+        <v>0.03085778452464956</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3449776053.19919</v>
+        <v>5254347026.792006</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1224212349635988</v>
+        <v>0.1298883267580384</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02453161395943218</v>
+        <v>0.01890623789900238</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2476882207.366895</v>
+        <v>3053034243.208099</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09182116361342227</v>
+        <v>0.1188950533588857</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02562282858519957</v>
+        <v>0.02154706060227778</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3242526759.926398</v>
+        <v>2454588998.524067</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1116009622941935</v>
+        <v>0.1184569257714031</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03061505816988003</v>
+        <v>0.0347396228184088</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3669306926.472549</v>
+        <v>3006155559.394916</v>
       </c>
       <c r="F100" t="n">
-        <v>0.132664887221451</v>
+        <v>0.168743775923412</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02818913016309329</v>
+        <v>0.02363050828017466</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3352231968.285032</v>
+        <v>3272313456.783353</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2053134586477934</v>
+        <v>0.1777246833993386</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05322001493098811</v>
+        <v>0.04716785998385051</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_306.xlsx
+++ b/output/fit_clients/fit_round_306.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1790842393.63855</v>
+        <v>1683689397.166473</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08089235367743527</v>
+        <v>0.08245031124213109</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03796242738616575</v>
+        <v>0.03850188802941205</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1652106616.201748</v>
+        <v>2371487349.78296</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1478737200116185</v>
+        <v>0.1362222012099904</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0459326393060983</v>
+        <v>0.05021830200964527</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3281334098.64543</v>
+        <v>3674889078.265679</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1153096653123355</v>
+        <v>0.1063503101920798</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03684060794536548</v>
+        <v>0.03529106604249771</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>161</v>
+      </c>
+      <c r="J4" t="n">
+        <v>305</v>
+      </c>
+      <c r="K4" t="n">
+        <v>54.26354503283576</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3489305640.529121</v>
+        <v>3060722349.325627</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07600731683777397</v>
+        <v>0.07014342739355399</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05093617337034543</v>
+        <v>0.0361253528235647</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>124</v>
+      </c>
+      <c r="J5" t="n">
+        <v>302</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1869128262.451169</v>
+        <v>2519606210.298671</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09366597238202423</v>
+        <v>0.1036591497030873</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04859011994615129</v>
+        <v>0.03870265289862861</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2284038727.4693</v>
+        <v>2763788556.207879</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06683131551563412</v>
+        <v>0.06142281853214569</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04071539467165917</v>
+        <v>0.03750898476373785</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3635269545.131115</v>
+        <v>3040561379.298926</v>
       </c>
       <c r="F8" t="n">
-        <v>0.17018373724549</v>
+        <v>0.1533176400077127</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02732143702952046</v>
+        <v>0.0270324958505994</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>82</v>
+      </c>
+      <c r="J8" t="n">
+        <v>304</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1604284564.362405</v>
+        <v>1625903445.494765</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1293522418865642</v>
+        <v>0.1596506532358707</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03625974440463084</v>
+        <v>0.03224923559638652</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4826263158.932019</v>
+        <v>3627711916.453297</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1722537943180016</v>
+        <v>0.1518006839581186</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03310549905117933</v>
+        <v>0.04708878454066943</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>269</v>
+      </c>
+      <c r="J10" t="n">
+        <v>306</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2675610686.553195</v>
+        <v>4273358443.423249</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1417848402399155</v>
+        <v>0.1539533792824951</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03369279944103529</v>
+        <v>0.04332017726509</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>122</v>
+      </c>
+      <c r="J11" t="n">
+        <v>306</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2379831222.811415</v>
+        <v>2561151210.201491</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1748086669862917</v>
+        <v>0.1926265581492268</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03971932160307872</v>
+        <v>0.03616938246547294</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>296</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4843396366.488737</v>
+        <v>3761568606.01841</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0773169149825064</v>
+        <v>0.09749197530622915</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02428454284924219</v>
+        <v>0.02221639382498966</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>158</v>
+      </c>
+      <c r="J13" t="n">
+        <v>305</v>
+      </c>
+      <c r="K13" t="n">
+        <v>59.25125942810132</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2491616661.84554</v>
+        <v>2668413330.88126</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1243562689414421</v>
+        <v>0.1533960609647865</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03782761585773184</v>
+        <v>0.03408980834776828</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>63</v>
+      </c>
+      <c r="J14" t="n">
+        <v>298</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +960,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1589859393.298936</v>
+        <v>1114990097.77525</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09954275391960733</v>
+        <v>0.1022834720679525</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04756790668139793</v>
+        <v>0.03146348534589032</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1950048257.837286</v>
+        <v>1844141613.895016</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09178017773690401</v>
+        <v>0.1120441843528551</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04574892380897404</v>
+        <v>0.03181014371209376</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4649897591.215044</v>
+        <v>4791136865.866735</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1660974734415599</v>
+        <v>0.1127480274583035</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04697661571426742</v>
+        <v>0.04063587088233699</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>145</v>
+      </c>
+      <c r="J17" t="n">
+        <v>305</v>
+      </c>
+      <c r="K17" t="n">
+        <v>77.66426098709739</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3161978546.72283</v>
+        <v>3026322652.954976</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1115028311272266</v>
+        <v>0.1838745722958244</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02781384105020471</v>
+        <v>0.02818770594998939</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>76</v>
+      </c>
+      <c r="J18" t="n">
+        <v>298</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>856781238.9214792</v>
+        <v>827996150.7045071</v>
       </c>
       <c r="F19" t="n">
-        <v>0.136370329166729</v>
+        <v>0.1206807979687602</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02484201480619192</v>
+        <v>0.02275255669557685</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2461417727.960659</v>
+        <v>2688118741.821632</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1075557225573555</v>
+        <v>0.1268197701421919</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02705993908390431</v>
+        <v>0.02500585322965152</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2505876956.81582</v>
+        <v>2694194948.906121</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0792133231094559</v>
+        <v>0.07982042697728978</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03139371818351171</v>
+        <v>0.03345596256365466</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1207,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3571706993.493794</v>
+        <v>3139540345.124574</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09104186440950936</v>
+        <v>0.1064428442806453</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03992949678114942</v>
+        <v>0.04472106517711329</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>83</v>
+      </c>
+      <c r="J22" t="n">
+        <v>302</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1242,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1229693725.656108</v>
+        <v>1301575231.336029</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1765692069823213</v>
+        <v>0.1343740960375467</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0501989692187287</v>
+        <v>0.04743571384411339</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1277,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2967527676.62963</v>
+        <v>3446747399.044023</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09246609618614191</v>
+        <v>0.09974887680032873</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03756876376853938</v>
+        <v>0.03100004916266178</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>90</v>
+      </c>
+      <c r="J24" t="n">
+        <v>306</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1251475514.443331</v>
+        <v>939111691.2134297</v>
       </c>
       <c r="F25" t="n">
-        <v>0.117747109925561</v>
+        <v>0.09062298351603164</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02833529817568745</v>
+        <v>0.02889977448527613</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1143274844.544922</v>
+        <v>1303908852.330331</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07639386789760359</v>
+        <v>0.09154991329799778</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03675126774715931</v>
+        <v>0.02735766277402834</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3024090707.029965</v>
+        <v>4408477804.756817</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09743030096901188</v>
+        <v>0.1192412281324784</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02638724953125738</v>
+        <v>0.02619587644889585</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>127</v>
+      </c>
+      <c r="J27" t="n">
+        <v>305</v>
+      </c>
+      <c r="K27" t="n">
+        <v>76.53074971381825</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3326213169.44366</v>
+        <v>3593790945.735279</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09887732450873422</v>
+        <v>0.1069860870636187</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04871741239928352</v>
+        <v>0.04278750107904475</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>64</v>
+      </c>
+      <c r="J28" t="n">
+        <v>306</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4170561756.910896</v>
+        <v>4319253471.151558</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1180443262413969</v>
+        <v>0.1477246093462974</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03336017938342292</v>
+        <v>0.03447953907343775</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>286</v>
+      </c>
+      <c r="J29" t="n">
+        <v>306</v>
+      </c>
+      <c r="K29" t="n">
+        <v>80.05232817767391</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1522505960.955018</v>
+        <v>1839692326.988057</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1151562620966937</v>
+        <v>0.09263925224112798</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02653981412478424</v>
+        <v>0.03010555575409866</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1046344717.688721</v>
+        <v>1326072385.225438</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09027379367867215</v>
+        <v>0.06943258997549868</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04879283466382084</v>
+        <v>0.03179524901814012</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1521342436.984962</v>
+        <v>1769609088.837088</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09650879312128786</v>
+        <v>0.08026943090000775</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03116521953721654</v>
+        <v>0.03427777813697211</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2535521113.713674</v>
+        <v>2896294276.989998</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1630555045795456</v>
+        <v>0.146822948077041</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0590221890502275</v>
+        <v>0.04309774767738594</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1167397578.257281</v>
+        <v>982958029.8218213</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1214261393640224</v>
+        <v>0.08490075446030948</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0240405598086175</v>
+        <v>0.01780992627936405</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1258455279.567893</v>
+        <v>1186178694.90702</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1153882946992923</v>
+        <v>0.1089104981988112</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03420282234172042</v>
+        <v>0.02811009860373719</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2711764278.443716</v>
+        <v>2713177151.790579</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1438035221719167</v>
+        <v>0.1519862254310718</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02055343566630899</v>
+        <v>0.02452957051684723</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2832039612.347953</v>
+        <v>2404256917.341015</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1123538347302096</v>
+        <v>0.09152499412485958</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02787308612408479</v>
+        <v>0.02645704899493191</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1461394075.189951</v>
+        <v>1529267901.707866</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09134587905337591</v>
+        <v>0.1129416141271562</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02422682818573714</v>
+        <v>0.03073037127755474</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1826117423.92165</v>
+        <v>2153625887.510377</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1795467850987289</v>
+        <v>0.1600580162953273</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03134548074139833</v>
+        <v>0.03127104194836444</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1505646253.596842</v>
+        <v>1324193552.711556</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1102438014896463</v>
+        <v>0.1609478874013657</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04348720469470382</v>
+        <v>0.05239761065336667</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2131006844.644737</v>
+        <v>2877810786.685895</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1512323693777111</v>
+        <v>0.1629434499307401</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03700287478193545</v>
+        <v>0.03986966934595119</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4107835730.239405</v>
+        <v>3132575941.800727</v>
       </c>
       <c r="F42" t="n">
-        <v>0.114814130364773</v>
+        <v>0.1162218813054366</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0310634260644764</v>
+        <v>0.03726032279877464</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>126</v>
+      </c>
+      <c r="J42" t="n">
+        <v>304</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2494222488.419411</v>
+        <v>1981995011.818202</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1717574795452578</v>
+        <v>0.1810411876381393</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01862733228767509</v>
+        <v>0.01859272055844962</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1981,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2106681388.109525</v>
+        <v>1740497642.638741</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07313584696519905</v>
+        <v>0.07067676185057614</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02424531431609383</v>
+        <v>0.02877134812015833</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2330927788.731694</v>
+        <v>2473011033.83666</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1575218437944933</v>
+        <v>0.1648487378672417</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05587823852098407</v>
+        <v>0.04848995403071513</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3985674482.074244</v>
+        <v>5521960268.658945</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1279575283633644</v>
+        <v>0.1567645666617264</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04664353733941951</v>
+        <v>0.04840670656020658</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>182</v>
+      </c>
+      <c r="J46" t="n">
+        <v>306</v>
+      </c>
+      <c r="K46" t="n">
+        <v>80.10544384001054</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5140994478.286999</v>
+        <v>4936427028.050071</v>
       </c>
       <c r="F47" t="n">
-        <v>0.181874406578421</v>
+        <v>0.1708875633119656</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05666797397868611</v>
+        <v>0.05338616807248411</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>136</v>
+      </c>
+      <c r="J47" t="n">
+        <v>306</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2123,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3242714180.476508</v>
+        <v>4379299643.524928</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09027254700710853</v>
+        <v>0.06745759257858416</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03862530614105985</v>
+        <v>0.02975180034485684</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>153</v>
+      </c>
+      <c r="J48" t="n">
+        <v>306</v>
+      </c>
+      <c r="K48" t="n">
+        <v>87.44321519498838</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1617388230.061552</v>
+        <v>1892144504.84555</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1204362599317024</v>
+        <v>0.1477267589559401</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03226368321303111</v>
+        <v>0.03068336428836387</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4068439073.931005</v>
+        <v>3462206002.098392</v>
       </c>
       <c r="F50" t="n">
-        <v>0.150538780100802</v>
+        <v>0.1708642311504954</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03328767013898916</v>
+        <v>0.05347007796397001</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>96</v>
+      </c>
+      <c r="J50" t="n">
+        <v>306</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1137150903.611559</v>
+        <v>1325198863.148444</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1325336778616543</v>
+        <v>0.1305220161040546</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04614013299048214</v>
+        <v>0.04369896345131095</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2259,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3431140559.224932</v>
+        <v>4687659078.38615</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09439186884724161</v>
+        <v>0.1367626901720822</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03732795264928372</v>
+        <v>0.0588146424510426</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>187</v>
+      </c>
+      <c r="J52" t="n">
+        <v>306</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2862954827.891342</v>
+        <v>3517876726.740777</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1256971571332817</v>
+        <v>0.1593558120723335</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02374649410139513</v>
+        <v>0.029899709373242</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>42</v>
+      </c>
+      <c r="J53" t="n">
+        <v>306</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2329,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4049840695.671527</v>
+        <v>4170275553.513974</v>
       </c>
       <c r="F54" t="n">
-        <v>0.142521770669366</v>
+        <v>0.1169285435257776</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05225254514727082</v>
+        <v>0.03253753559122369</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>160</v>
+      </c>
+      <c r="J54" t="n">
+        <v>305</v>
+      </c>
+      <c r="K54" t="n">
+        <v>76.35300360259508</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2366,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3139588692.212646</v>
+        <v>4631205096.172613</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1420010237115282</v>
+        <v>0.1412402626624708</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02239006063022938</v>
+        <v>0.02162398697785167</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>141</v>
+      </c>
+      <c r="J55" t="n">
+        <v>306</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1734841791.633084</v>
+        <v>1863457704.999264</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1018357677689039</v>
+        <v>0.1507694616806151</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04201559327081848</v>
+        <v>0.03740022082427572</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2442,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3323869114.530117</v>
+        <v>3953792107.083465</v>
       </c>
       <c r="F57" t="n">
-        <v>0.154195040534625</v>
+        <v>0.1448651866800145</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02728517382266113</v>
+        <v>0.01888097539466448</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>126</v>
+      </c>
+      <c r="J57" t="n">
+        <v>305</v>
+      </c>
+      <c r="K57" t="n">
+        <v>67.7472456571782</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2479,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1614543051.673531</v>
+        <v>1702295822.122273</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1842707878680898</v>
+        <v>0.1749507533025852</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02446048790307641</v>
+        <v>0.03072026848458423</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5263275576.277341</v>
+        <v>5015948223.615215</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1209879066193135</v>
+        <v>0.1138851690837116</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0359922668614757</v>
+        <v>0.03017005253582555</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>148</v>
+      </c>
+      <c r="J59" t="n">
+        <v>305</v>
+      </c>
+      <c r="K59" t="n">
+        <v>75.72802485876819</v>
       </c>
     </row>
     <row r="60">
@@ -2110,16 +2551,25 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3680646937.360011</v>
+        <v>2620774159.847744</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2047850812322862</v>
+        <v>0.1967075932311285</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03087835206807687</v>
+        <v>0.03253034428413459</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>52</v>
+      </c>
+      <c r="J60" t="n">
+        <v>305</v>
+      </c>
+      <c r="K60" t="n">
+        <v>34.85530283986767</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3279185512.532135</v>
+        <v>3325104390.813293</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1483963063223141</v>
+        <v>0.153773536841702</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03115692383322775</v>
+        <v>0.03162749054206673</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1484478986.84318</v>
+        <v>1975195809.029553</v>
       </c>
       <c r="F62" t="n">
-        <v>0.189977944344579</v>
+        <v>0.1609471103281515</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0465374965274129</v>
+        <v>0.04076935037067794</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4147928474.17768</v>
+        <v>4677782455.318637</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08175616061312584</v>
+        <v>0.1041090127898226</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04382666169055854</v>
+        <v>0.02988615905266577</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>149</v>
+      </c>
+      <c r="J63" t="n">
+        <v>305</v>
+      </c>
+      <c r="K63" t="n">
+        <v>78.01317403962082</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3525183230.583098</v>
+        <v>4612718936.672486</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1720281849634406</v>
+        <v>0.1917524221229778</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02640371636908621</v>
+        <v>0.02909392560240375</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>150</v>
+      </c>
+      <c r="J64" t="n">
+        <v>306</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4748022995.063548</v>
+        <v>4641194004.437345</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1275466982676406</v>
+        <v>0.106551655608224</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0302707641789505</v>
+        <v>0.02751796225896483</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>243</v>
+      </c>
+      <c r="J65" t="n">
+        <v>306</v>
+      </c>
+      <c r="K65" t="n">
+        <v>80.87326749638622</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2767,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4235829416.378394</v>
+        <v>5114309490.583437</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1557889966627786</v>
+        <v>0.1164071925093352</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03226149522171808</v>
+        <v>0.05048657467917272</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>151</v>
+      </c>
+      <c r="J66" t="n">
+        <v>305</v>
+      </c>
+      <c r="K66" t="n">
+        <v>76.09753113468992</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2804,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2254021186.395545</v>
+        <v>3206376565.078864</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08377393423415416</v>
+        <v>0.06767690284440468</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0460290614367848</v>
+        <v>0.04923513178175503</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>9</v>
+      </c>
+      <c r="J67" t="n">
+        <v>296</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2839,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5405815135.28998</v>
+        <v>5436345158.100576</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09927770311005268</v>
+        <v>0.1394681009320757</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03226393767039794</v>
+        <v>0.03887388303492272</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>164</v>
+      </c>
+      <c r="J68" t="n">
+        <v>306</v>
+      </c>
+      <c r="K68" t="n">
+        <v>79.61846407872594</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2146906119.947572</v>
+        <v>1837380388.620261</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1426623793031938</v>
+        <v>0.1233139503899766</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05543058102431998</v>
+        <v>0.04043177838585754</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2911,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2466128983.552843</v>
+        <v>2916779399.29158</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08303592606339891</v>
+        <v>0.09710757531525128</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04497968023926837</v>
+        <v>0.03488749930177525</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>46</v>
+      </c>
+      <c r="J70" t="n">
+        <v>303</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5045507478.209062</v>
+        <v>4082001278.322846</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1341277817563116</v>
+        <v>0.1704518140432286</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02215541811771981</v>
+        <v>0.02478963510472791</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>228</v>
+      </c>
+      <c r="J71" t="n">
+        <v>305</v>
+      </c>
+      <c r="K71" t="n">
+        <v>70.32016911348487</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2983,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1678025715.089238</v>
+        <v>1677845024.160058</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1021413985387148</v>
+        <v>0.07371316345967846</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04375807228323768</v>
+        <v>0.03784675577422029</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3012,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2805843711.15627</v>
+        <v>3204794365.480405</v>
       </c>
       <c r="F73" t="n">
-        <v>0.107183593964224</v>
+        <v>0.07901549041514278</v>
       </c>
       <c r="G73" t="n">
-        <v>0.043474987669318</v>
+        <v>0.03223007814826368</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>21</v>
+      </c>
+      <c r="J73" t="n">
+        <v>305</v>
+      </c>
+      <c r="K73" t="n">
+        <v>58.63909166316188</v>
       </c>
     </row>
     <row r="74">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3371060731.725101</v>
+        <v>3330142414.15423</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1622522957142542</v>
+        <v>0.1123446153967335</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02239440811510326</v>
+        <v>0.03406653879497914</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>81</v>
+      </c>
+      <c r="J74" t="n">
+        <v>298</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3090,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1508009732.575679</v>
+        <v>2158425321.243857</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1591150444383179</v>
+        <v>0.1636370149846218</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02668146464875295</v>
+        <v>0.03159590930992993</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3119,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4277528920.644618</v>
+        <v>5207581971.6191</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08561853585704642</v>
+        <v>0.09278315688796296</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02368762276822927</v>
+        <v>0.02304770688979089</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>144</v>
+      </c>
+      <c r="J76" t="n">
+        <v>305</v>
+      </c>
+      <c r="K76" t="n">
+        <v>73.74335249578624</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2084667027.226319</v>
+        <v>2297596053.007738</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1338409297025167</v>
+        <v>0.1819835486229495</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02665727177465853</v>
+        <v>0.02286078241681269</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3191,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2926370087.911932</v>
+        <v>2958961657.651559</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1205877298136133</v>
+        <v>0.1020752406263832</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03645995180319359</v>
+        <v>0.05644482350945421</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>152</v>
+      </c>
+      <c r="J78" t="n">
+        <v>305</v>
+      </c>
+      <c r="K78" t="n">
+        <v>36.94075580289848</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3228,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1885586027.090004</v>
+        <v>1811226557.643984</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1726683032119979</v>
+        <v>0.111909674392492</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03938444255521315</v>
+        <v>0.03951940192254046</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3263,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4273008093.073124</v>
+        <v>3878090703.515581</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06800531926347286</v>
+        <v>0.09573081623058897</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03488278878799446</v>
+        <v>0.03337990577560902</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>149</v>
+      </c>
+      <c r="J80" t="n">
+        <v>306</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3298,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5169758783.227069</v>
+        <v>4630394440.531549</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08505244170619052</v>
+        <v>0.1127291582001709</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03202137814403065</v>
+        <v>0.03257849830379873</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>141</v>
+      </c>
+      <c r="J81" t="n">
+        <v>305</v>
+      </c>
+      <c r="K81" t="n">
+        <v>72.62198765945834</v>
       </c>
     </row>
     <row r="82">
@@ -2726,17 +3341,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4497494382.267882</v>
+        <v>3735633222.355006</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2023503603780879</v>
+        <v>0.1898934313257457</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0195713085842119</v>
+        <v>0.02136198686765143</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>222</v>
+      </c>
+      <c r="J82" t="n">
+        <v>306</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3370,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1521439773.315804</v>
+        <v>2055952939.115946</v>
       </c>
       <c r="F83" t="n">
-        <v>0.117033131479625</v>
+        <v>0.116289194973163</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04268708866492463</v>
+        <v>0.04123472776074878</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3411,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2334522505.600936</v>
+        <v>1581846493.865238</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1099905490688652</v>
+        <v>0.1030474122302018</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03488281798379349</v>
+        <v>0.04586115068732562</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3440,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2778139575.394786</v>
+        <v>3038420686.630321</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1412904676433875</v>
+        <v>0.1824548397553722</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04803074192698979</v>
+        <v>0.03792967326587868</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>40</v>
+      </c>
+      <c r="J85" t="n">
+        <v>298</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3475,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1836056694.10252</v>
+        <v>2028566599.727925</v>
       </c>
       <c r="F86" t="n">
-        <v>0.172756514874585</v>
+        <v>0.1699336737786611</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02344416161997856</v>
+        <v>0.02166096747332738</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3510,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>931924774.5088819</v>
+        <v>1034212147.950256</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1373880640657448</v>
+        <v>0.1355913527317566</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03611417191465666</v>
+        <v>0.03512770538650186</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3545,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3060921129.933547</v>
+        <v>3325889127.528584</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1454072343148035</v>
+        <v>0.1187156319672778</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02651866507483767</v>
+        <v>0.03681707427395492</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>43</v>
+      </c>
+      <c r="J88" t="n">
+        <v>300</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3586,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3143765719.754232</v>
+        <v>2224415432.951847</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1207764375615515</v>
+        <v>0.1460811200737556</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03950893013057139</v>
+        <v>0.03562022270806346</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>22</v>
+      </c>
+      <c r="J89" t="n">
+        <v>295</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1719377226.870928</v>
+        <v>1651827279.758953</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1380567055933438</v>
+        <v>0.1272766772681879</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05623309124036163</v>
+        <v>0.04577985921021947</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1393836870.172358</v>
+        <v>1881679529.393316</v>
       </c>
       <c r="F91" t="n">
-        <v>0.14338305594331</v>
+        <v>0.1554104237698668</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05477174171498534</v>
+        <v>0.04961493311022574</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3685,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2991755828.644517</v>
+        <v>1828903818.93694</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07912962669250236</v>
+        <v>0.09744957923652736</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03425015202394254</v>
+        <v>0.03224361932470954</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3134096374.017721</v>
+        <v>4053777380.493927</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1019792384327232</v>
+        <v>0.1174761580898539</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05461243274630893</v>
+        <v>0.04627061515883458</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>136</v>
+      </c>
+      <c r="J93" t="n">
+        <v>306</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2352565136.180135</v>
+        <v>1680885344.930858</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1139293414190097</v>
+        <v>0.1377070036611072</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03005322210119157</v>
+        <v>0.03958116376772421</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3093707194.009509</v>
+        <v>2437531882.798637</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1223559452433036</v>
+        <v>0.115064525351619</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05113634602590827</v>
+        <v>0.04961171244358658</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2282326631.584423</v>
+        <v>1773623418.8884</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1025719321033977</v>
+        <v>0.08815604733822664</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03085778452464956</v>
+        <v>0.03661964072579228</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3866,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5254347026.792006</v>
+        <v>3498406753.980232</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1298883267580384</v>
+        <v>0.1587676729248969</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01890623789900238</v>
+        <v>0.02750323233856968</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>153</v>
+      </c>
+      <c r="J97" t="n">
+        <v>306</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3053034243.208099</v>
+        <v>3464481635.306473</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1188950533588857</v>
+        <v>0.09270041028564463</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02154706060227778</v>
+        <v>0.02223944218719731</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>75</v>
+      </c>
+      <c r="J98" t="n">
+        <v>306</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2454588998.524067</v>
+        <v>2931876794.550103</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1184569257714031</v>
+        <v>0.1069238669017041</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0347396228184088</v>
+        <v>0.03289527031669874</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3006155559.394916</v>
+        <v>3272436535.544728</v>
       </c>
       <c r="F100" t="n">
-        <v>0.168743775923412</v>
+        <v>0.1713686541075771</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02363050828017466</v>
+        <v>0.0217605396620321</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>133</v>
+      </c>
+      <c r="J100" t="n">
+        <v>304</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3272313456.783353</v>
+        <v>2383290896.715096</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1777246833993386</v>
+        <v>0.2199601253069331</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04716785998385051</v>
+        <v>0.03808158320298655</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>28</v>
+      </c>
+      <c r="J101" t="n">
+        <v>301</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
